--- a/report/facture/1.xlsx
+++ b/report/facture/1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="2018-11-30" sheetId="2" r:id="rId5"/>
+    <sheet name="2019-11-23" sheetId="2" r:id="rId5"/>
     <sheet name="Worksheet" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>HEALTH FACILITY:</t>
   </si>
   <si>
-    <t>GIHUNDWE HEALTH CENTER</t>
+    <t>KIGOMA HEALTH CENTER</t>
   </si>
   <si>
     <t>CODE H F:</t>
@@ -40,19 +40,19 @@
     <t xml:space="preserve">Rwanda Social Board (RSSB) has to pay </t>
   </si>
   <si>
-    <t>To                 GIHUNDWE HEALTH CENTER           The sum of</t>
+    <t>To                 KIGOMA HEALTH CENTER           The sum of</t>
   </si>
   <si>
     <t>(In Figure)</t>
   </si>
   <si>
-    <t>2,378 Frw</t>
+    <t>1,138 Frw</t>
   </si>
   <si>
     <t>In word</t>
   </si>
   <si>
-    <t>two thousand three hundred seventy eight Rwandan Francs</t>
+    <t>one thousand one hundred thirty eight Rwandan Francs</t>
   </si>
   <si>
     <t>for all medical care given its affiliate</t>
@@ -61,40 +61,37 @@
     <t>This amount includes</t>
   </si>
   <si>
-    <t>599 Frw</t>
-  </si>
-  <si>
-    <t>five hundred ninety nine Rwandan Francs</t>
+    <t>44 Frw</t>
+  </si>
+  <si>
+    <t>fourty four Rwandan Francs</t>
   </si>
   <si>
     <t>for all medicines</t>
   </si>
   <si>
-    <t>1,779 Frw</t>
-  </si>
-  <si>
-    <t>one thousand seven hundred seventy nine Rwandan Francs</t>
+    <t>1,094 Frw</t>
+  </si>
+  <si>
+    <t>one thousand ninety four Rwandan Francs</t>
   </si>
   <si>
     <t>for all medical procedures, investigation and other services</t>
   </si>
   <si>
-    <t>November, 2018</t>
-  </si>
-  <si>
-    <t>This amount will put into account number 0652057-01-35</t>
-  </si>
-  <si>
-    <t>At I&amp;M BANK</t>
-  </si>
-  <si>
-    <t>Done at GIHUNDWE, Date 2018 November 30</t>
-  </si>
-  <si>
-    <t>DAPHROSE IYAKAREMYE</t>
-  </si>
-  <si>
-    <t>Titulaire of GIHUNDWE HEALTH CENTER</t>
+    <t>November, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This amount will put into account number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At </t>
+  </si>
+  <si>
+    <t>Done at KIGOMA, Date 2019 November 23</t>
+  </si>
+  <si>
+    <t>Titulaire of KIGOMA HEALTH CENTER</t>
   </si>
   <si>
     <t>(Names signature for responsable &amp; stamp of ..)</t>
@@ -124,25 +121,25 @@
     <t>PROVINCE / MVK</t>
   </si>
   <si>
-    <t>WESTERN</t>
+    <t>SOUTHERN</t>
   </si>
   <si>
     <t>ADMINISTRATIVE DISTRICT</t>
   </si>
   <si>
-    <t>RUSIZI</t>
+    <t>RUHANGO</t>
   </si>
   <si>
     <t>Period</t>
   </si>
   <si>
-    <t>11/2018</t>
+    <t>11/2019</t>
   </si>
   <si>
     <t>ADMINISTRATIVE SECTION</t>
   </si>
   <si>
-    <t>KAMEMBE</t>
+    <t>KIGOMA</t>
   </si>
   <si>
     <t>HEALTH FACILITY</t>
@@ -154,7 +151,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>S U M M A R Y  O F V O U C H E R S  F O R  R W A N D A S O C I A L S E C U R I T Y B O A D (R S S B) / CBHI</t>
+    <t>S U M M A R Y  O F V O U C H E R S  F O R  R W A N D A S O C I A L S E C U R I T Y B O A D (R S S B) / C B H I</t>
   </si>
   <si>
     <t>No</t>
@@ -229,166 +226,46 @@
     <t>200 RWF /10%</t>
   </si>
   <si>
-    <t>20181121A1</t>
-  </si>
-  <si>
-    <t>2018-11-21</t>
+    <t>20191117A2</t>
+  </si>
+  <si>
+    <t>2019-11-17</t>
   </si>
   <si>
     <t>CPC</t>
   </si>
   <si>
-    <t>Ntakinanirimana Alphonsine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1198270082990087 </t>
-  </si>
-  <si>
-    <t>1982-05-15</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Siborurema Valens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1199280203036016 </t>
-  </si>
-  <si>
-    <t>20181121A2</t>
-  </si>
-  <si>
-    <t>Mukangirinshuti Marie Chantal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003 </t>
-  </si>
-  <si>
-    <t>2003-01-01</t>
-  </si>
-  <si>
-    <t>Nikuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1197570038605037 </t>
-  </si>
-  <si>
-    <t>20181121A3</t>
-  </si>
-  <si>
-    <t>Ntakirutimana Simon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1198980068337051 </t>
-  </si>
-  <si>
-    <t>1989-01-01</t>
+    <t>Bikorimana David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199380026479048 </t>
+  </si>
+  <si>
+    <t>1993-01-01</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>20181124A1</t>
-  </si>
-  <si>
-    <t>2018-11-24</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>Uwamahoro Beatrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1198770060052021 </t>
-  </si>
-  <si>
-    <t>1987-01-01</t>
-  </si>
-  <si>
-    <t>Sindayiheba Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1198180006750174 </t>
-  </si>
-  <si>
-    <t>20181125A1</t>
-  </si>
-  <si>
-    <t>2018-11-25</t>
-  </si>
-  <si>
-    <t>Nikozikamwa Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1197580036627001 </t>
-  </si>
-  <si>
-    <t>1975-01-01</t>
-  </si>
-  <si>
-    <t>20181125A2</t>
-  </si>
-  <si>
-    <t>Irakoze Kevine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018 </t>
-  </si>
-  <si>
-    <t>2018-06-26</t>
-  </si>
-  <si>
-    <t>Ndagijimana Protais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1198980058684006 </t>
-  </si>
-  <si>
-    <t>20181129A1</t>
-  </si>
-  <si>
-    <t>2018-11-29</t>
-  </si>
-  <si>
-    <t>Tuyizere Josephine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1199470202545068 </t>
-  </si>
-  <si>
-    <t>1994-11-28</t>
-  </si>
-  <si>
-    <t>Urayeneza Pierre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1196580023780052 </t>
-  </si>
-  <si>
-    <t>20181129A2</t>
-  </si>
-  <si>
-    <t>Nsengamungu Eric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1199380193194081 </t>
-  </si>
-  <si>
-    <t>1993-01-01</t>
-  </si>
-  <si>
-    <t>Simpunga Albert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1196480028303008 </t>
+    <t>20191117A3</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>Ruberandinda Patience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199080021631043 </t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
   </si>
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Prepared By: UWAMBAZA Beatrice</t>
+    <t>Prepared By: Ruberandinda Patience</t>
   </si>
 </sst>
 </file>
@@ -941,15 +818,13 @@
     <row r="25" spans="1:4">
       <c r="A25"/>
       <c r="B25"/>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
+      <c r="C25"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -957,7 +832,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -965,7 +840,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -973,25 +848,25 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -999,17 +874,17 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1033,10 +908,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1046,14 +921,14 @@
     <col min="3" max="3" width="10.997314" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="7.998047" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="4.998779" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29.992676" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.994629" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="17.995605" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="10.997314" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="4.998779" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="21.994629" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="22.994385" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.997559" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="4.998779" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="5.998535" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="7.998047" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="4.998779" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="24.993896" bestFit="true" customWidth="true" style="0"/>
@@ -1067,51 +942,51 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1"/>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:22">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
         <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
     </row>
     <row r="3" spans="1:22">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -1123,19 +998,19 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -1161,70 +1036,70 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1240,140 +1115,148 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="V8" s="9"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L9" s="6">
-        <v>300</v>
-      </c>
-      <c r="M9" s="6"/>
+        <v>360</v>
+      </c>
+      <c r="M9" s="6">
+        <v>472.5</v>
+      </c>
       <c r="N9" s="6">
         <v>0</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="P9" s="6">
+        <v>85</v>
+      </c>
       <c r="Q9" s="6">
         <v>0</v>
       </c>
       <c r="R9" s="6">
         <v>0</v>
       </c>
-      <c r="S9" s="6"/>
+      <c r="S9" s="6">
+        <v>43.8</v>
+      </c>
       <c r="T9" s="6">
-        <v>300</v>
+        <v>961.3</v>
       </c>
       <c r="U9" s="6">
         <v>200</v>
       </c>
       <c r="V9" s="9">
-        <v>100</v>
+        <v>761.3</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L10" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
         <v>0</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="P10" s="6">
+        <v>376.4</v>
+      </c>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
@@ -1382,431 +1265,63 @@
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6">
-        <v>300</v>
+        <v>376.4</v>
       </c>
       <c r="U10" s="6">
         <v>0</v>
       </c>
       <c r="V10" s="9">
-        <v>300</v>
+        <v>376.4</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="6">
-        <v>300</v>
-      </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6">
-        <v>300</v>
-      </c>
-      <c r="U11" s="6">
+      <c r="A11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7">
+        <v>360</v>
+      </c>
+      <c r="M11" s="7">
+        <v>472.5</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7">
+        <v>461.4</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="T11" s="7">
+        <v>1337.7</v>
+      </c>
+      <c r="U11" s="7">
         <v>200</v>
       </c>
-      <c r="V11" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="3">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="6">
-        <v>360</v>
-      </c>
-      <c r="M12" s="6">
-        <v>270</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="T12" s="6">
-        <v>630</v>
-      </c>
-      <c r="U12" s="6">
-        <v>200</v>
-      </c>
-      <c r="V12" s="9">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="6">
-        <v>360</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6">
-        <v>360</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>360</v>
+      <c r="V11" s="10">
+        <v>1137.7</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="6">
-        <v>360</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>40.5</v>
-      </c>
-      <c r="T14" s="6">
-        <v>409.1</v>
-      </c>
-      <c r="U14" s="6">
-        <v>200</v>
-      </c>
-      <c r="V14" s="9">
-        <v>209.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="3">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" s="6">
-        <v>360</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>150.5</v>
-      </c>
-      <c r="T15" s="6">
-        <v>510.5</v>
-      </c>
-      <c r="U15" s="6">
-        <v>200</v>
-      </c>
-      <c r="V15" s="9">
-        <v>310.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" s="6">
-        <v>360</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>408</v>
-      </c>
-      <c r="T16" s="6">
-        <v>768</v>
-      </c>
-      <c r="U16" s="6">
-        <v>200</v>
-      </c>
-      <c r="V16" s="9">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7">
-        <v>2700</v>
-      </c>
-      <c r="M17" s="7">
-        <v>270</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7">
-        <v>599</v>
-      </c>
-      <c r="T17" s="7">
-        <v>3577.6</v>
-      </c>
-      <c r="U17" s="7">
-        <v>1200</v>
-      </c>
-      <c r="V17" s="10">
-        <v>2377.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1823,8 +1338,8 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="A6:V6"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/facture/1.xlsx
+++ b/report/facture/1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="2019-11-23" sheetId="2" r:id="rId5"/>
+    <sheet name="2019-12-03" sheetId="2" r:id="rId5"/>
     <sheet name="Worksheet" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>HEALTH FACILITY:</t>
   </si>
@@ -46,13 +46,13 @@
     <t>(In Figure)</t>
   </si>
   <si>
-    <t>1,138 Frw</t>
+    <t>560 Frw</t>
   </si>
   <si>
     <t>In word</t>
   </si>
   <si>
-    <t>one thousand one hundred thirty eight Rwandan Francs</t>
+    <t>five hundred sixty Rwandan Francs</t>
   </si>
   <si>
     <t>for all medical care given its affiliate</t>
@@ -61,25 +61,19 @@
     <t>This amount includes</t>
   </si>
   <si>
-    <t>44 Frw</t>
-  </si>
-  <si>
-    <t>fourty four Rwandan Francs</t>
+    <t>0 Frw</t>
+  </si>
+  <si>
+    <t>zero Rwandan Francs</t>
   </si>
   <si>
     <t>for all medicines</t>
   </si>
   <si>
-    <t>1,094 Frw</t>
-  </si>
-  <si>
-    <t>one thousand ninety four Rwandan Francs</t>
-  </si>
-  <si>
     <t>for all medical procedures, investigation and other services</t>
   </si>
   <si>
-    <t>November, 2019</t>
+    <t>December, 2019</t>
   </si>
   <si>
     <t xml:space="preserve">This amount will put into account number </t>
@@ -88,7 +82,7 @@
     <t xml:space="preserve">At </t>
   </si>
   <si>
-    <t>Done at KIGOMA, Date 2019 November 23</t>
+    <t>Done at KIGOMA, Date 2019 December 03</t>
   </si>
   <si>
     <t>Titulaire of KIGOMA HEALTH CENTER</t>
@@ -133,7 +127,7 @@
     <t>Period</t>
   </si>
   <si>
-    <t>11/2019</t>
+    <t>12/2019</t>
   </si>
   <si>
     <t>ADMINISTRATIVE SECTION</t>
@@ -226,40 +220,61 @@
     <t>200 RWF /10%</t>
   </si>
   <si>
-    <t>20191117A2</t>
-  </si>
-  <si>
-    <t>2019-11-17</t>
+    <t>20191201A1</t>
+  </si>
+  <si>
+    <t>2019-12-01</t>
   </si>
   <si>
     <t>CPC</t>
   </si>
   <si>
-    <t>Bikorimana David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1199380026479048 </t>
-  </si>
-  <si>
-    <t>1993-01-01</t>
+    <t>Ruberandinda Patience</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>20191117A3</t>
-  </si>
-  <si>
-    <t>PST</t>
-  </si>
-  <si>
-    <t>Ruberandinda Patience</t>
+    <t>Mukandayisenga Annualite</t>
   </si>
   <si>
     <t xml:space="preserve">1199080021631043 </t>
   </si>
   <si>
-    <t>1990-01-01</t>
+    <t>20191201A2</t>
+  </si>
+  <si>
+    <t>20191203A1</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>20191203A2</t>
+  </si>
+  <si>
+    <t>Cyusa Pacy Emmanuel</t>
+  </si>
+  <si>
+    <t>2013-08-03</t>
+  </si>
+  <si>
+    <t>20191203A3</t>
+  </si>
+  <si>
+    <t>CPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20140802 </t>
+  </si>
+  <si>
+    <t>1989-01-01</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -773,7 +788,7 @@
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -782,27 +797,27 @@
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -812,7 +827,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -824,7 +839,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -832,7 +847,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -840,7 +855,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -848,25 +863,25 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -874,17 +889,17 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -908,10 +923,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,72 +936,72 @@
     <col min="3" max="3" width="10.997314" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="7.998047" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="4.998779" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="21.994629" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.993896" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="17.995605" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="10.997314" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="4.998779" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="21.994629" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="24.993896" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="22.994385" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.997559" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="5.998535" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="4.998779" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="7.998047" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="4.998779" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="24.993896" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="9.997559" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="17.995605" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="5.998535" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="5.998535" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="12.996826" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="25.993652" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1"/>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:22">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
     </row>
     <row r="3" spans="1:22">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -998,19 +1013,19 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -1036,70 +1051,70 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="V7" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1115,101 +1130,95 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V8" s="9"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="L9" s="6">
         <v>360</v>
       </c>
-      <c r="M9" s="6">
-        <v>472.5</v>
-      </c>
+      <c r="M9" s="6"/>
       <c r="N9" s="6">
         <v>0</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="6">
-        <v>85</v>
-      </c>
+      <c r="P9" s="6"/>
       <c r="Q9" s="6">
         <v>0</v>
       </c>
       <c r="R9" s="6">
         <v>0</v>
       </c>
-      <c r="S9" s="6">
-        <v>43.8</v>
-      </c>
+      <c r="S9" s="6"/>
       <c r="T9" s="6">
-        <v>961.3</v>
+        <v>360</v>
       </c>
       <c r="U9" s="6">
         <v>200</v>
       </c>
       <c r="V9" s="9">
-        <v>761.3</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1217,46 +1226,44 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L10" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
         <v>0</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="6">
-        <v>376.4</v>
-      </c>
+      <c r="P10" s="6"/>
       <c r="Q10" s="6">
         <v>0</v>
       </c>
@@ -1265,63 +1272,245 @@
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6">
-        <v>376.4</v>
+        <v>300</v>
       </c>
       <c r="U10" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V10" s="9">
-        <v>376.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="6">
+        <v>300</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6">
+        <v>300</v>
+      </c>
+      <c r="U11" s="6">
+        <v>200</v>
+      </c>
+      <c r="V11" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="6">
+        <v>300</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6">
+        <v>300</v>
+      </c>
+      <c r="U12" s="6">
+        <v>200</v>
+      </c>
+      <c r="V12" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7">
-        <v>360</v>
-      </c>
-      <c r="M11" s="7">
-        <v>472.5</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7">
-        <v>461.4</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7">
-        <v>43.8</v>
-      </c>
-      <c r="T11" s="7">
-        <v>1337.7</v>
-      </c>
-      <c r="U11" s="7">
+      <c r="C13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="6">
+        <v>300</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>300</v>
+      </c>
+      <c r="U13" s="6">
         <v>200</v>
       </c>
-      <c r="V11" s="10">
-        <v>1137.7</v>
+      <c r="V13" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
+        <v>1560</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1560</v>
+      </c>
+      <c r="U14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="V14" s="10">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1338,8 +1527,8 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="A6:V6"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="B17:F17"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
